--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/44_Karaman_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/44_Karaman_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4C27F4-1A1E-4F4D-BA61-867ECDE37DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{133E1A83-403B-4811-BA7F-78D4F154031B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3381500C-F68B-4BA3-A5D1-AC21936416E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B68F8C3-A44B-49E1-95EC-8056ABC2CB70}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{1BC86858-E9BC-47C8-B8F7-9E64FFAC6100}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2667E564-137D-4942-8530-B5BC6D5A4B6F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D0976422-F78D-4EFD-A810-535AD005CD1D}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{B48841BF-8378-4000-B7E6-116AE40A12F8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{ED728DEE-D6AC-42FD-8EC9-8ED117CC16D3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{46314503-D772-41A9-971A-E451E071475D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D9D39B7D-ABB2-4E42-86DF-64BAAC9A7F3A}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{45CF5FD1-90B8-4189-AE35-E60E41446395}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E11526-D79F-4223-BFE4-87BE6F6E981B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F8B055-59B7-423E-B405-9D31DD9ECF3D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2425,18 +2425,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E5D54E18-19D5-49E9-87E5-832BCFE1EB43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1BC09563-5459-4F6D-A68E-3849B6C37903}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B959A630-7B13-4D46-AC3B-D0116E1DF587}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C16994BD-0777-41F0-9F09-995E6F03CD79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74A03307-CF50-41B0-A2F1-2A85C5EA2042}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3847B136-8C86-463C-876C-E231A12E366E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2CE97C5D-FA8D-4BE8-8093-C5B7A1F6BEE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6ABFD698-1F0D-4EA2-B49D-0C1148DDF97D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CCB9A2C0-4A08-42E0-BD02-3ED7B9E05363}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E3FF61D5-11B3-4A0B-9501-312DC1623CF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{89B823FC-13AC-4A3E-BB20-4D53F6925B52}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A0422805-3798-407B-9DDD-89F119783394}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EE4C8B6A-A681-4FC0-943E-CAFCB180C96F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1616D55E-3A88-412A-B848-6C9534D3595A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7BC32715-6315-49C5-A3B9-6A8D4EF75BF6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{063B7DF3-D0D5-4C5D-A7A7-9BA4D8A4866F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E5396C6E-0A8C-4F94-B6A8-10A5CF754DAF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4B1F959F-FB15-4F48-9923-A8F292E613C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3B2F809A-0D58-45EC-9CEF-9C0B4ACA79CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1EFC5054-7BDD-4E78-90A6-FE9FE3885EF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{83985324-EB7A-4E42-BF9C-3589B21DE4B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A9925C24-A8C6-4F70-A817-676BFE40BE0F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3560CE69-D0DA-4A58-B3A1-C36FDE80B07F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{64CDFEF5-B4DB-4B44-9662-F0BB74C5E431}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2449,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8668EB75-C328-4C8B-8234-D3EACAD354BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB68BD81-7CBB-405F-A9D9-2A99995F2F44}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3602,18 +3602,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{346973DF-92CC-477C-A696-9419418511CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1C437F28-EBB6-4DD1-8C79-26819D0FDE4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BE3156CB-438B-44F4-A805-E86B9B0F63F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{434E8BC2-5146-4F9E-8731-E430F5B7059F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{85AE4A16-6F12-4B21-9EF3-9CD99FB82BB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{19F8E9C8-672D-4581-852F-0115BDF03586}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3675E55A-DE39-4A4E-9CE5-0A10D7FF3B79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BB2AB048-7B88-4076-8850-30C9B76597AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE427066-D971-4ECB-AF96-5B0D86252DF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66E3B496-A2F6-4C10-949A-5641DBA4C040}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B523DBC0-E9D9-49E4-A151-D23CA7A38A3F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2A4D0481-ED4E-4E3D-AE17-0A44BE1C05C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3AC6F5A2-A354-4F2B-83EA-5401BA51FBB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EDF4B4DE-DDA9-43E7-A766-29D98F8A0A3D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A2F3C28-2BB4-4FAA-8FC6-E5254090ECB8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BA5FB832-3BAC-4059-913C-932663F814B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{14805479-DA3B-4BDA-A38A-0EB754D11D0F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{14E44AF1-E8DB-4A5F-91E4-DDA07F1E366C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{756586B7-6849-408C-93DD-D9960D4F36E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5A0F853D-72D0-4A25-94E4-F00B7C35DEEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F5BA59A8-8DF1-4E24-AEAE-1AE8C7D051EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{691F2591-1CA2-43EE-AF7E-AA27BC82356A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD661476-ED3E-436B-89BB-2AF4B05A7111}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A8B04ED6-C6D8-445A-B6A1-3A0EE748EF13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3626,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B8C83F-7157-4A08-8804-608F10E4CDBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C247C-D991-4A50-A287-8D67D2E8A60F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4775,18 +4775,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{02BA0E80-9753-4ACC-B4B2-8435B1F61407}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E8157366-C309-4A3E-8885-842D957C28F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FC47B758-505B-400E-B66B-E4CD6AD36D30}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{786D82C2-0C4E-4DEE-9F05-2C751D204BD1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{455FC08D-B9A2-4576-96EB-A637124B41B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{25731A50-494F-4171-ADBA-6D8978342C4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{81253686-98FF-4872-A26C-51B6BFA878C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CD0B2016-F789-40D6-B8A6-242B0A12AD5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9C61B7F1-2F21-4BFB-9CB9-3EA356599EE4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2F69E5A9-FBDE-406E-900C-B36355D5D416}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CE45EAC1-AA97-4535-9C29-E0978556441D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86A2AE25-EB8A-44D8-9D90-8F6B758548EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4BF668AB-EB21-4696-A483-3D86DE1BC914}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8D093B74-9CD1-42CF-9230-D73927014155}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{024CCFBD-AF39-418F-8154-5D5FD461FE64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{394F1059-790F-4008-B87E-D7D1AA9F5EF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{18544524-A9C1-45F6-A05A-8CA858027B05}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0F0A990D-AA2F-48C3-BB74-66D05764A1D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{298AFEF0-2A2E-4576-9D8F-9D048622369F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8F7485CB-B507-4EFC-8FE8-EF6D413E318F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8739305A-D73D-415B-B5AB-8803D868390A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{131C84AA-BE32-488B-8093-734C616489D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D2739FD8-62D3-4DF4-A3FE-C3C487264333}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4F1B9CF6-2C87-4181-ADDA-EEE1CE851F04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4799,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D601A2F-A5D9-432A-8BAF-835C683C5D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9805737A-9B6E-4C65-BC76-1B58DF2D9F4A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5944,18 +5944,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0DE5D501-5744-4257-9968-75239D5CEB41}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ABC6092B-7B87-4277-8DB3-6F886AAFFA95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3F93E301-F9A7-4C4A-AF59-2E1635D1B78C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{882D2426-0045-4351-984B-B8E543F72118}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E8AAEEB-22E1-4711-AA14-B1F1B4EE0CA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B70ACD74-85FA-4293-8CD5-63AA57BCE90A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3CCA031D-3E17-4B54-BB57-02E47AC6AC0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A054DE50-F558-4967-98B1-D38458F84488}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D503C3C1-E38B-43F3-AA36-3FC700E25C6E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{969AC076-4B49-4AE3-A7C1-983641DD6037}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9F4E16A-9967-4160-9EE9-5A3C595590B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7A9F79E3-E273-4EE9-84A7-E46BB32930B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99F07F01-DF07-41BE-863D-C1E7CE5C9497}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BE5B3ED2-3599-484A-8A29-76600C6D2C3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0C9F7913-7BCA-4814-ABDC-D85860FC7D98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A18639D7-445B-48B9-AF58-5BFD43683F96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{398C1357-9F8A-4F6E-A7EC-BC9B971F6658}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CC4878CF-64FE-4049-9C84-2116E40A939A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B974D99C-3D15-43F4-A099-4720D573DD7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A14B78EE-83AB-46E6-ABB8-EDEB21D39896}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D94DC2C9-C085-4240-B189-7651EB2804EA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AD4D87E7-FC9E-4E64-AFA3-0D98B4116B1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FFEB6C4E-6C4D-4FD2-B178-9F0BF07262A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ED5F3A84-ABFF-4C55-8C22-1AE720822E6D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5968,7 +5968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFDC2F5-F126-4F3F-A79A-DF76D9640703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E49A96-BD5B-4B55-9CFE-DE8664F0642A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7169,18 +7169,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B3A1D38-6B72-45AC-8906-7A7D7182F115}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{05DBB260-DA98-42F1-83F5-A3EC30B2FD28}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{05781239-A5D0-442C-B3B4-6F9CC4CAF47A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8631D35A-BECF-44F1-BDC7-5CDF29D9ACF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{231A66A0-5311-45F2-8232-36BC41D5A117}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8895A0BA-5CF4-4537-B0A1-0F28DF29D747}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DA2359E9-7F1B-4978-8249-1EBDDE45D52C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{28ECDA33-B6B4-44EB-8F2C-7050CECCED74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3AAE165F-14FF-4EBC-B17D-18DA713345D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D1EF49B-7F41-4BED-9BD5-B111CB39204F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B620E99-6742-4641-96B7-36F0C97D7F75}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70C78F1F-3C15-4768-BE94-507AFCEC78BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{74005D56-2CD6-411F-8352-B1E5762AEEBC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3E2868F1-8F2C-47CD-9CEB-E5A684E7124A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{909D34F1-9015-4619-8B95-C8AFA833C059}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7602E6F3-CC92-4C17-A304-999ED9C7A5E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF4F22F1-48AA-4758-A36A-86B874A529F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D6F4B2D8-6CF1-47FB-9742-F7B62A2800BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B4294019-68C2-470D-8A03-E426B4BDF49D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B5D7D1F8-704F-43C8-BCDE-4AE53C450F54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{18EE57DD-197E-4CD1-8B20-5B17389FC703}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{321D6568-F14E-4A76-892A-FCDBA588662F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7B15EC4C-43D3-4040-80CF-6C8646B78D5B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7CF5DF48-AD63-47A8-B820-06C4A04DB6AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7193,7 +7193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52D9B36-9416-4DE0-9A1B-190BA623D231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EAC994-D324-4D8A-84C8-4A81F2CD62E5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8394,18 +8394,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1ADF69EE-5DC9-4F95-AD0B-D319716BD8AF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FDB04A60-B764-4CF9-9FD0-33CD9C5F61A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7E551271-9391-413B-9CB5-A713FE500038}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6B8F3432-B2D2-4CB9-B46C-4DDFD774872E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{56C43E6A-CA4F-4511-ADAF-AB18D8458513}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4DDFF641-1B66-47D4-87E1-CD7C3D67A48C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{33A382D7-F104-4A4B-AFF0-6D8D4617CA5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F1E2C983-B026-42CC-A58E-4277772459ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{79711377-D2F0-4B92-AFB2-077DFBEBFD19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{98F690B3-820C-4A73-A407-F70CD4978A58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{164AC2DC-EF22-43BA-934F-4387DCFB0AE5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B991686-28C1-4F5F-B17F-B491F35A7F01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{05F46C49-9FB5-41B5-9CE7-168E13D4A583}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5C0AE7C7-2151-4811-AC9E-7E2CB136F90E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7A3F1DF8-7FC2-4766-9BC7-CA5E44E280EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EE5BEFBE-7A86-46B2-B190-1B5DD1DF5BB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{678CCDEB-4AC5-41B4-89C2-7A223895D7C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2E108458-BC40-461C-8F11-B40142843019}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E04E4F00-C536-4338-B471-C121B25AFD34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{29F1713E-9AAD-48E1-BF62-F77E8C410B34}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{307117A8-43ED-4F75-9886-F03ACDD48E69}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F8E60892-12E0-4C9D-AF7A-AA325EF4A821}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{836FD7B2-1863-4280-B791-A156D97DB67E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E968E43D-4BF4-4711-AFCD-735DF7705609}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8418,7 +8418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4E72A4-053A-4E3C-9D34-D1BE6FE03021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748273E8-01EF-49D4-B5D5-7750F22D6176}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9619,18 +9619,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{62AE1B5C-77EE-473D-982A-1486938A7371}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C8F040D4-71F4-4F98-AB6E-4A4A1F7B2394}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{418D2DB1-F24E-48C3-A738-A717B9F5B4F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A8D8B55-9499-472C-8893-F28ED481A103}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0CB8D723-66FA-48CB-AA35-7B1B9828F01C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{03B9900F-5341-4744-9C14-29B67632A0CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E846CD7-26AC-4BE4-AE5E-37FE4C12DCCB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{837E7E10-44BD-4101-B0CF-92A1651DDF74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F45C5F7B-C1D0-47D8-94BE-B423C6578494}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{560DA46A-8A31-4BE6-86ED-13A48C2D72F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D7BD20A3-02A6-4DA0-9323-1030AAC1F63C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{18403F1D-AEFB-4412-B375-3B49FA411687}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4544BD80-8A89-4A1B-A075-850D7A160B06}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4E605ECA-1B83-410B-B653-1923CF2AF209}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E6F0014-9F7E-49C1-AEC6-A2FB6F63C9CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{875F50FB-8DAA-4147-9AFE-B16AA3334ADB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3ECD7A48-6AA9-4104-B9C1-8A113AF36001}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9513BE81-FF71-44FB-A9EC-6FA50787E2E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AB3E8381-FC89-4DE9-B5CC-B990D0153644}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A46772CE-3361-4EFF-880D-32F8EE7AA65F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D0C33664-7FA6-45C0-BB60-4C531B44958A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{52E18C87-F12D-4210-89CA-4AB6FAD3BA39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F5D610FC-2166-440C-9FA9-8D48C75EB9A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{10470BDC-355D-4019-8594-EFE9D607451A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9643,7 +9643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E2AB9-D9A4-4FAC-8B0F-B893535388B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C515357-E255-4D0A-AB01-6AB8832438A1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10832,18 +10832,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1187F69A-D39A-40FB-AD59-96901C7CA023}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{53734F26-207C-4E49-843C-80877C6A06D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{09EF888C-559C-4EEA-B5E9-EE56D310677E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{254E62B0-75B3-4E26-85F1-3E722543D936}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{20C31399-B26E-4FD8-AF23-1C43E4C3B384}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{981BD45B-DC08-4792-A646-6C697B280773}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8B9441F7-00FF-4281-8853-A3E591787E0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AE8FEBB6-ED30-4DF4-9DDF-DF63C7278C44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5FBB9E4E-F42D-4409-96D0-2536B66D0DB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CC944F82-57DE-4B34-B9E3-33684C802B87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C431CF52-B1FC-46EE-B82C-278DE20064B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{202668A6-0A5D-4589-BA2F-25B1F060D274}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65507E40-3672-4246-A231-9F3C4BD38B99}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B9FF88BE-C7D3-4216-AD42-3821FB1B8D77}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4FD730B-FFAB-4AA9-BAE6-25CCA9242E04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{876A6073-D843-4AD5-8980-5A7833C19EF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED926260-CFA8-4556-BB6D-6305A045558E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40B38702-E5A3-42FC-A223-69E4334BC5BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{72C6D300-B89C-4BBB-BA34-F4815F36B2A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A5302926-D9ED-4BED-BCEC-114A56423249}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{004B62CD-DA80-452D-9BCF-CA55B4F414BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CBA3595B-6268-47F6-AF4F-8E2EBF120B1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{32EF0F26-4099-476B-98F7-267A0D285488}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0B7BAC12-BBBD-4C8B-B94C-501F23D29F17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10856,7 +10856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE55FE7-6080-466B-AC6A-4236A803F233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E292F6-3134-4F5C-BDCE-0CCA3F1DBDD9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12041,18 +12041,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{64EAD42D-5B55-444D-B7E5-3C42C4079CB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F6F1B561-5DE6-42D2-8F94-055916DA2B31}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7C05A616-DDBE-49DF-BF68-6E61DBC35521}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{716B51F4-0BDC-4F5B-8EAC-CF9C7F33E59E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DE3B1EBB-0286-4A4B-A7A0-413EC2952F57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{39BAEBD5-3B56-4853-BC8D-E5EDAD3954FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EA69AF0E-093C-4B5C-9A8F-64CE529A3271}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B02C2A73-F635-4A49-9412-B486C618C494}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A211F8EB-5918-4655-B4E2-90E88BD010F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{39B357A7-877C-41C7-9A95-BE74473A0786}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FF5C2C15-EAA2-4CF7-B425-E714E9FCF323}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2A24003F-0772-4602-B5EE-10789CFA0C78}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC540452-493A-4DB8-8E0B-3B273A31F0BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1CE26A74-B756-452A-8530-A4FB4CE1100E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2123EF04-A3B3-4D39-B41C-5674EB894493}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F802B07F-1E2C-4B79-B2CA-7C6F93390A5D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{16C53588-EDB8-4F31-907A-47E6DB32E16B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1C302178-7D81-4443-85C1-9962690DAF4A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E09C08AD-361A-4450-8D2B-A2A84F340489}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AB719D92-6770-4960-B5FD-1D578A7E3C04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BFA29940-BE62-4A8A-A453-204465EDE0F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{60738726-CAB7-4496-AB1E-CA01AEBD0651}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7351BA30-64C5-4A3C-AC54-79B390AAFB55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7471C9FD-DE32-4CB4-81F7-AED6D4C311B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12065,7 +12065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DECEE5-FBF7-4D38-AB53-40A52BC7B66B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A022B5FC-E2F7-4D50-914A-62C0202AE935}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13250,18 +13250,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7EE0EB9-7286-49E4-AA23-04C2DB2E00F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{00EB8EE6-D1F4-462A-8ADA-C37695542588}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BADB049F-05E9-4ED3-A2F0-D56802591C41}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C6CB4F05-E542-460B-B059-8ACBA1F6D6BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A8841545-0D6C-486E-BDE8-A9EE8361A203}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{126C633C-075F-4FC0-9357-30F77CF81905}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4CAD4CF5-51F3-44CE-9B40-D073666A8351}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7075434F-7496-4F84-AD9A-5AE033109CF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3B84AFDB-F3A6-4E15-84DD-7704EC72929C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9B517FE2-8BFF-437F-A5C5-5A42859CDF5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5D1F8F4C-1033-442F-9098-388E4E8B2DFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B6474071-6FE8-4E26-9D73-42C99A856C94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D126446-ED91-489E-86AD-656279516A23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3E852C97-D8AB-4FFF-809A-29F5A472065A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81E1EBEE-69D1-468C-B3EE-2F88666C5EF4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D27A4DF9-B6F9-4E1C-B2D2-E85F9FD8A4D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B50CB3B4-A907-460A-8D1B-B2357E37B403}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B96D7C7C-46A2-42D5-B80D-C62BB7AFA6AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{186ED692-2A7C-484C-84F8-A06BF2D49618}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6143A3F1-05D5-4531-9117-668335BFF576}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2428396A-F584-44E0-8ACD-1E6B4FE05E03}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9950C483-06CF-42AC-BFEC-62A5E9532FDD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B44A7E94-9292-4F8E-A567-C72783418CDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5EC7DC28-D0FD-4B46-B472-6A6A88B8BEF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13274,7 +13274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17E3069-D748-4F08-B41E-D1C20E283956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237FF773-0A67-4FA0-AE49-3DC59E98E25B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14459,18 +14459,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CA60386F-A142-443E-8AD4-FC630CC9E49B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{93A217CE-489B-4B98-8CCC-CED32489DFC4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{019A034A-01A3-4199-8D3A-A27F7ADA8CF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72CEAA9E-0E60-4D24-9162-2C50B2145251}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5450A02B-7696-4840-B6A2-5EAAB887514B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4924A450-99E4-4213-B9E8-998FEEE21288}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{58425782-1D96-495A-AA64-752680556B68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D24EE94C-792A-4768-94EB-E77CE621BB63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CFFF25F9-4371-4568-AB9A-2C9CD27020C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E65418C6-D150-4494-BDAA-1C0F92643A99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{63AA4384-FBE2-4CC4-A87E-2BEA60A6BB82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DC8C6FA3-296B-464E-B2AF-5D4231A36B21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D86A43E-A638-4C8F-B9B7-7279CBED4054}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C69C5066-298D-403C-AB9A-FCD4A3AFCA5E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D80479C5-D813-4E54-9997-31250D4B3E5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1550C84D-D5E1-4187-89FF-2725153F3794}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0EB4CC9A-279A-458D-AB12-413219EA272F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8FCC6767-205D-4281-8415-0D0DB93F1200}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{54CF75F0-3A34-4B9C-BDBD-C179B496C4FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2747A344-15BE-4016-937F-DDFAD70B37FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1C87C62E-19F4-4E45-886F-B6B5B9E9FCF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EA6E0767-2571-4AD5-8E4D-AD95AAC2FD61}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2D6CEBD-D638-4180-957D-CEA5EE98ECDC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3E2BB492-6F0A-4F87-840C-B4B30E1112B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14483,7 +14483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADF565-18DC-4056-A113-4393A4C6B4FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF43359-7CF2-4318-ABBA-9EAE9F4B91D1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15664,18 +15664,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{414DA247-42A6-44B0-8C0D-C952F17BE64E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F766F518-6672-4222-86D0-F6B0AD9FBD47}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{23CF7CC7-9111-4EAF-AC36-9A8F968FCE98}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CC39C712-1B91-4ECB-B597-CCD94DB03FDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D2C6B4AE-B6C9-4DB3-8401-4AF5128DD5CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7584FAB6-85B4-4CC6-BF38-C15A71A76112}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0193C143-3896-43ED-BF61-DF17E3CBABDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D83333C6-9072-410F-B7E7-16421DFC094C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D397C1DA-B710-4C2E-87A2-A5DB103E4DFF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1E96E950-A20D-43B5-A570-DA57A9F52506}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{738EDEE6-23BF-47EE-A8B7-356E662E02D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6D1E8F3A-B3AA-4F29-AE8F-A41978E56997}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8BEF2685-9B1C-4DD2-A333-6EA4C7214B6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB3E5A92-015C-4CDD-ACD7-C3FF8C000CA4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BBF2D463-5790-44CE-AD7C-CE2DF06B2991}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F8F58013-1F2F-4198-A3BB-4F71E19BB485}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{24B03850-47BC-4D2E-8A06-B31406C03A32}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5FA10D1F-3505-4746-B9FB-BA424AD27121}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3D61F40E-B3E9-4371-A4A5-657C93531655}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EDA6C468-39C2-4B91-BCCF-FD81EAA38787}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CAE884BD-B84E-4A72-A466-D316D29B6E9C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{08C98CC5-4C06-4598-8288-3DA4F29F75F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0011617B-45B8-4495-8A85-B07BC8220AF2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5F31C9A2-B22A-4260-9FDA-EBCE607EDA1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
